--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vegfc-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vegfc-Nrp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Vegfc</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.663313</v>
+        <v>2.404594333333333</v>
       </c>
       <c r="H2">
-        <v>7.989939000000001</v>
+        <v>7.213783</v>
       </c>
       <c r="I2">
-        <v>0.3794306644527502</v>
+        <v>0.3565065439253589</v>
       </c>
       <c r="J2">
-        <v>0.3794306644527503</v>
+        <v>0.3565065439253589</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.218763</v>
+        <v>35.42630833333333</v>
       </c>
       <c r="N2">
-        <v>102.656289</v>
+        <v>106.278925</v>
       </c>
       <c r="O2">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="P2">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="Q2">
-        <v>91.13527634181901</v>
+        <v>85.18590026925277</v>
       </c>
       <c r="R2">
-        <v>820.2174870763711</v>
+        <v>766.6731024232751</v>
       </c>
       <c r="S2">
-        <v>0.1535526085512718</v>
+        <v>0.1073458937663096</v>
       </c>
       <c r="T2">
-        <v>0.1535526085512718</v>
+        <v>0.1073458937663096</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.663313</v>
+        <v>2.404594333333333</v>
       </c>
       <c r="H3">
-        <v>7.989939000000001</v>
+        <v>7.213783</v>
       </c>
       <c r="I3">
-        <v>0.3794306644527502</v>
+        <v>0.3565065439253589</v>
       </c>
       <c r="J3">
-        <v>0.3794306644527503</v>
+        <v>0.3565065439253589</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>41.870491</v>
       </c>
       <c r="O3">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="P3">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="Q3">
-        <v>37.17140766556101</v>
+        <v>33.56051513082812</v>
       </c>
       <c r="R3">
-        <v>334.542668990049</v>
+        <v>302.044636177453</v>
       </c>
       <c r="S3">
-        <v>0.06262960776200031</v>
+        <v>0.04229084250550352</v>
       </c>
       <c r="T3">
-        <v>0.06262960776200033</v>
+        <v>0.04229084250550352</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.663313</v>
+        <v>2.404594333333333</v>
       </c>
       <c r="H4">
-        <v>7.989939000000001</v>
+        <v>7.213783</v>
       </c>
       <c r="I4">
-        <v>0.3794306644527502</v>
+        <v>0.3565065439253589</v>
       </c>
       <c r="J4">
-        <v>0.3794306644527503</v>
+        <v>0.3565065439253589</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.45863566666667</v>
+        <v>16.22618433333333</v>
       </c>
       <c r="N4">
-        <v>43.375907</v>
+        <v>48.678553</v>
       </c>
       <c r="O4">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544151</v>
       </c>
       <c r="P4">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544152</v>
       </c>
       <c r="Q4">
-        <v>38.507872333297</v>
+        <v>39.01739089955544</v>
       </c>
       <c r="R4">
-        <v>346.570850999673</v>
+        <v>351.156518095999</v>
       </c>
       <c r="S4">
-        <v>0.06488139921098617</v>
+        <v>0.04916725285879274</v>
       </c>
       <c r="T4">
-        <v>0.06488139921098618</v>
+        <v>0.04916725285879275</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.663313</v>
+        <v>2.404594333333333</v>
       </c>
       <c r="H5">
-        <v>7.989939000000001</v>
+        <v>7.213783</v>
       </c>
       <c r="I5">
-        <v>0.3794306644527502</v>
+        <v>0.3565065439253589</v>
       </c>
       <c r="J5">
-        <v>0.3794306644527503</v>
+        <v>0.3565065439253589</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.095449666666667</v>
+        <v>4.270717666666667</v>
       </c>
       <c r="N5">
-        <v>9.286349</v>
+        <v>12.812153</v>
       </c>
       <c r="O5">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="P5">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="Q5">
-        <v>8.244151338079</v>
+        <v>10.26934350053322</v>
       </c>
       <c r="R5">
-        <v>74.19736204271101</v>
+        <v>92.42409150479901</v>
       </c>
       <c r="S5">
-        <v>0.01389046035813251</v>
+        <v>0.01294077837968068</v>
       </c>
       <c r="T5">
-        <v>0.01389046035813251</v>
+        <v>0.01294077837968068</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,14 +776,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.663313</v>
+        <v>2.404594333333333</v>
       </c>
       <c r="H6">
-        <v>7.989939000000001</v>
+        <v>7.213783</v>
       </c>
       <c r="I6">
-        <v>0.3794306644527502</v>
+        <v>0.3565065439253589</v>
       </c>
       <c r="J6">
-        <v>0.3794306644527503</v>
+        <v>0.3565065439253589</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.185362</v>
+        <v>7.732288666666666</v>
       </c>
       <c r="N6">
-        <v>24.556086</v>
+        <v>23.196866</v>
       </c>
       <c r="O6">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141176</v>
       </c>
       <c r="P6">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141178</v>
       </c>
       <c r="Q6">
-        <v>21.800181024306</v>
+        <v>18.59301751156422</v>
       </c>
       <c r="R6">
-        <v>196.201629218754</v>
+        <v>167.337157604078</v>
       </c>
       <c r="S6">
-        <v>0.03673083352067563</v>
+        <v>0.02342974689805451</v>
       </c>
       <c r="T6">
-        <v>0.03673083352067563</v>
+        <v>0.02342974689805452</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.663313</v>
+        <v>2.404594333333333</v>
       </c>
       <c r="H7">
-        <v>7.989939000000001</v>
+        <v>7.213783</v>
       </c>
       <c r="I7">
-        <v>0.3794306644527502</v>
+        <v>0.3565065439253589</v>
       </c>
       <c r="J7">
-        <v>0.3794306644527503</v>
+        <v>0.3565065439253589</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.640006</v>
+        <v>40.042015</v>
       </c>
       <c r="N7">
-        <v>31.920018</v>
+        <v>120.126045</v>
       </c>
       <c r="O7">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="P7">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="Q7">
-        <v>28.337666299878</v>
+        <v>96.28480236424834</v>
       </c>
       <c r="R7">
-        <v>255.038996698902</v>
+        <v>866.5632212782351</v>
       </c>
       <c r="S7">
-        <v>0.04774575504968379</v>
+        <v>0.1213320295170178</v>
       </c>
       <c r="T7">
-        <v>0.04774575504968379</v>
+        <v>0.1213320295170178</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.178631333333333</v>
+        <v>3.178631333333334</v>
       </c>
       <c r="H8">
-        <v>9.535893999999999</v>
+        <v>9.535894000000001</v>
       </c>
       <c r="I8">
-        <v>0.4528458348143826</v>
+        <v>0.471265716362492</v>
       </c>
       <c r="J8">
-        <v>0.4528458348143827</v>
+        <v>0.4712657163624919</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.218763</v>
+        <v>35.42630833333333</v>
       </c>
       <c r="N8">
-        <v>102.656289</v>
+        <v>106.278925</v>
       </c>
       <c r="O8">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="P8">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="Q8">
-        <v>108.7688322597073</v>
+        <v>112.6071736926611</v>
       </c>
       <c r="R8">
-        <v>978.9194903373659</v>
+        <v>1013.46456323395</v>
       </c>
       <c r="S8">
-        <v>0.183263151141507</v>
+        <v>0.141900451440082</v>
       </c>
       <c r="T8">
-        <v>0.183263151141507</v>
+        <v>0.141900451440082</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.178631333333333</v>
+        <v>3.178631333333334</v>
       </c>
       <c r="H9">
-        <v>9.535893999999999</v>
+        <v>9.535894000000001</v>
       </c>
       <c r="I9">
-        <v>0.4528458348143826</v>
+        <v>0.471265716362492</v>
       </c>
       <c r="J9">
-        <v>0.4528458348143827</v>
+        <v>0.4712657163624919</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>41.870491</v>
       </c>
       <c r="O9">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="P9">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="Q9">
         <v>44.36361821155045</v>
       </c>
       <c r="R9">
-        <v>399.272563903954</v>
+        <v>399.2725639039541</v>
       </c>
       <c r="S9">
-        <v>0.07474766714489461</v>
+        <v>0.05590423101210226</v>
       </c>
       <c r="T9">
-        <v>0.07474766714489463</v>
+        <v>0.05590423101210226</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.178631333333333</v>
+        <v>3.178631333333334</v>
       </c>
       <c r="H10">
-        <v>9.535893999999999</v>
+        <v>9.535894000000001</v>
       </c>
       <c r="I10">
-        <v>0.4528458348143826</v>
+        <v>0.471265716362492</v>
       </c>
       <c r="J10">
-        <v>0.4528458348143827</v>
+        <v>0.4712657163624919</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.45863566666667</v>
+        <v>16.22618433333333</v>
       </c>
       <c r="N10">
-        <v>43.375907</v>
+        <v>48.678553</v>
       </c>
       <c r="O10">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544151</v>
       </c>
       <c r="P10">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544152</v>
       </c>
       <c r="Q10">
-        <v>45.95867236731755</v>
+        <v>51.57705794237578</v>
       </c>
       <c r="R10">
-        <v>413.6280513058579</v>
+        <v>464.193521481382</v>
       </c>
       <c r="S10">
-        <v>0.07743515256470014</v>
+        <v>0.06499415237922247</v>
       </c>
       <c r="T10">
-        <v>0.07743515256470015</v>
+        <v>0.06499415237922247</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.178631333333333</v>
+        <v>3.178631333333334</v>
       </c>
       <c r="H11">
-        <v>9.535893999999999</v>
+        <v>9.535894000000001</v>
       </c>
       <c r="I11">
-        <v>0.4528458348143826</v>
+        <v>0.471265716362492</v>
       </c>
       <c r="J11">
-        <v>0.4528458348143827</v>
+        <v>0.4712657163624919</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.095449666666667</v>
+        <v>4.270717666666667</v>
       </c>
       <c r="N11">
-        <v>9.286349</v>
+        <v>12.812153</v>
       </c>
       <c r="O11">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="P11">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="Q11">
-        <v>9.839293301222888</v>
+        <v>13.57503699108689</v>
       </c>
       <c r="R11">
-        <v>88.55363971100599</v>
+        <v>122.175332919782</v>
       </c>
       <c r="S11">
-        <v>0.01657809372341311</v>
+        <v>0.01710640462932233</v>
       </c>
       <c r="T11">
-        <v>0.01657809372341311</v>
+        <v>0.01710640462932233</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,14 +1148,14 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
       <c r="E12">
         <v>3</v>
       </c>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.178631333333333</v>
+        <v>3.178631333333334</v>
       </c>
       <c r="H12">
-        <v>9.535893999999999</v>
+        <v>9.535894000000001</v>
       </c>
       <c r="I12">
-        <v>0.4528458348143826</v>
+        <v>0.471265716362492</v>
       </c>
       <c r="J12">
-        <v>0.4528458348143827</v>
+        <v>0.4712657163624919</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.185362</v>
+        <v>7.732288666666666</v>
       </c>
       <c r="N12">
-        <v>24.556086</v>
+        <v>23.196866</v>
       </c>
       <c r="O12">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141176</v>
       </c>
       <c r="P12">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141178</v>
       </c>
       <c r="Q12">
-        <v>26.018248127876</v>
+        <v>24.57809503424489</v>
       </c>
       <c r="R12">
-        <v>234.164233150884</v>
+        <v>221.202855308204</v>
       </c>
       <c r="S12">
-        <v>0.04383779838429425</v>
+        <v>0.03097176375650289</v>
       </c>
       <c r="T12">
-        <v>0.04383779838429425</v>
+        <v>0.03097176375650289</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.178631333333333</v>
+        <v>3.178631333333334</v>
       </c>
       <c r="H13">
-        <v>9.535893999999999</v>
+        <v>9.535894000000001</v>
       </c>
       <c r="I13">
-        <v>0.4528458348143826</v>
+        <v>0.471265716362492</v>
       </c>
       <c r="J13">
-        <v>0.4528458348143827</v>
+        <v>0.4712657163624919</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.640006</v>
+        <v>40.042015</v>
       </c>
       <c r="N13">
-        <v>31.920018</v>
+        <v>120.126045</v>
       </c>
       <c r="O13">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="P13">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="Q13">
-        <v>33.82065645845466</v>
+        <v>127.2788035288033</v>
       </c>
       <c r="R13">
-        <v>304.385908126092</v>
+        <v>1145.50923175923</v>
       </c>
       <c r="S13">
-        <v>0.05698397185557352</v>
+        <v>0.16038871314526</v>
       </c>
       <c r="T13">
-        <v>0.05698397185557353</v>
+        <v>0.16038871314526</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.177290666666667</v>
+        <v>1.125649</v>
       </c>
       <c r="H14">
-        <v>3.531872</v>
+        <v>3.376947</v>
       </c>
       <c r="I14">
-        <v>0.1677235007328672</v>
+        <v>0.166889370527102</v>
       </c>
       <c r="J14">
-        <v>0.1677235007328672</v>
+        <v>0.1668893705271019</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>34.218763</v>
+        <v>35.42630833333333</v>
       </c>
       <c r="N14">
-        <v>102.656289</v>
+        <v>106.278925</v>
       </c>
       <c r="O14">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="P14">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="Q14">
-        <v>40.28543030477867</v>
+        <v>39.87758854910834</v>
       </c>
       <c r="R14">
-        <v>362.5688727430081</v>
+        <v>358.898296941975</v>
       </c>
       <c r="S14">
-        <v>0.06787638286965612</v>
+        <v>0.05025121963281372</v>
       </c>
       <c r="T14">
-        <v>0.06787638286965612</v>
+        <v>0.05025121963281372</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.177290666666667</v>
+        <v>1.125649</v>
       </c>
       <c r="H15">
-        <v>3.531872</v>
+        <v>3.376947</v>
       </c>
       <c r="I15">
-        <v>0.1677235007328672</v>
+        <v>0.166889370527102</v>
       </c>
       <c r="J15">
-        <v>0.1677235007328672</v>
+        <v>0.1668893705271019</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>41.870491</v>
       </c>
       <c r="O15">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="P15">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="Q15">
-        <v>16.43124608768356</v>
+        <v>15.71049210788634</v>
       </c>
       <c r="R15">
-        <v>147.881214789152</v>
+        <v>141.394428970977</v>
       </c>
       <c r="S15">
-        <v>0.0276847868332401</v>
+        <v>0.01979737035705574</v>
       </c>
       <c r="T15">
-        <v>0.0276847868332401</v>
+        <v>0.01979737035705574</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.177290666666667</v>
+        <v>1.125649</v>
       </c>
       <c r="H16">
-        <v>3.531872</v>
+        <v>3.376947</v>
       </c>
       <c r="I16">
-        <v>0.1677235007328672</v>
+        <v>0.166889370527102</v>
       </c>
       <c r="J16">
-        <v>0.1677235007328672</v>
+        <v>0.1668893705271019</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.45863566666667</v>
+        <v>16.22618433333333</v>
       </c>
       <c r="N16">
-        <v>43.375907</v>
+        <v>48.678553</v>
       </c>
       <c r="O16">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544151</v>
       </c>
       <c r="P16">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544152</v>
       </c>
       <c r="Q16">
-        <v>17.02201682310044</v>
+        <v>18.26498816863234</v>
       </c>
       <c r="R16">
-        <v>153.198151407904</v>
+        <v>164.384893517691</v>
       </c>
       <c r="S16">
-        <v>0.02868016854623097</v>
+        <v>0.02301638502845755</v>
       </c>
       <c r="T16">
-        <v>0.02868016854623097</v>
+        <v>0.02301638502845755</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.177290666666667</v>
+        <v>1.125649</v>
       </c>
       <c r="H17">
-        <v>3.531872</v>
+        <v>3.376947</v>
       </c>
       <c r="I17">
-        <v>0.1677235007328672</v>
+        <v>0.166889370527102</v>
       </c>
       <c r="J17">
-        <v>0.1677235007328672</v>
+        <v>0.1668893705271019</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.095449666666667</v>
+        <v>4.270717666666667</v>
       </c>
       <c r="N17">
-        <v>9.286349</v>
+        <v>12.812153</v>
       </c>
       <c r="O17">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="P17">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="Q17">
-        <v>3.644244001703111</v>
+        <v>4.807329070765667</v>
       </c>
       <c r="R17">
-        <v>32.798196015328</v>
+        <v>43.26596163689101</v>
       </c>
       <c r="S17">
-        <v>0.006140137991791699</v>
+        <v>0.006057892610150256</v>
       </c>
       <c r="T17">
-        <v>0.006140137991791699</v>
+        <v>0.006057892610150255</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,14 +1520,14 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
       <c r="E18">
         <v>3</v>
       </c>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.177290666666667</v>
+        <v>1.125649</v>
       </c>
       <c r="H18">
-        <v>3.531872</v>
+        <v>3.376947</v>
       </c>
       <c r="I18">
-        <v>0.1677235007328672</v>
+        <v>0.166889370527102</v>
       </c>
       <c r="J18">
-        <v>0.1677235007328672</v>
+        <v>0.1668893705271019</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.185362</v>
+        <v>7.732288666666666</v>
       </c>
       <c r="N18">
-        <v>24.556086</v>
+        <v>23.196866</v>
       </c>
       <c r="O18">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141176</v>
       </c>
       <c r="P18">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141178</v>
       </c>
       <c r="Q18">
-        <v>9.636550285887999</v>
+        <v>8.703843005344668</v>
       </c>
       <c r="R18">
-        <v>86.72895257299201</v>
+        <v>78.33458704810201</v>
       </c>
       <c r="S18">
-        <v>0.01623649472772391</v>
+        <v>0.01096803348508605</v>
       </c>
       <c r="T18">
-        <v>0.01623649472772391</v>
+        <v>0.01096803348508605</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,10 +1582,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.177290666666667</v>
+        <v>1.125649</v>
       </c>
       <c r="H19">
-        <v>3.531872</v>
+        <v>3.376947</v>
       </c>
       <c r="I19">
-        <v>0.1677235007328672</v>
+        <v>0.166889370527102</v>
       </c>
       <c r="J19">
-        <v>0.1677235007328672</v>
+        <v>0.1668893705271019</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,400 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.640006</v>
+        <v>40.042015</v>
       </c>
       <c r="N19">
-        <v>31.920018</v>
+        <v>120.126045</v>
       </c>
       <c r="O19">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="P19">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="Q19">
-        <v>12.52637975707733</v>
+        <v>45.073254142735</v>
       </c>
       <c r="R19">
-        <v>112.737417813696</v>
+        <v>405.6592872846151</v>
       </c>
       <c r="S19">
-        <v>0.02110552976422433</v>
+        <v>0.05679846941353862</v>
       </c>
       <c r="T19">
-        <v>0.02110552976422433</v>
+        <v>0.05679846941353861</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.03600666666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.10802</v>
+      </c>
+      <c r="I20">
+        <v>0.005338369185047189</v>
+      </c>
+      <c r="J20">
+        <v>0.005338369185047188</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>35.42630833333333</v>
+      </c>
+      <c r="N20">
+        <v>106.278925</v>
+      </c>
+      <c r="O20">
+        <v>0.3011049743557705</v>
+      </c>
+      <c r="P20">
+        <v>0.3011049743557705</v>
+      </c>
+      <c r="Q20">
+        <v>1.275583275388889</v>
+      </c>
+      <c r="R20">
+        <v>11.4802494785</v>
+      </c>
+      <c r="S20">
+        <v>0.00160740951656527</v>
+      </c>
+      <c r="T20">
+        <v>0.001607409516565269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.03600666666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.10802</v>
+      </c>
+      <c r="I21">
+        <v>0.005338369185047189</v>
+      </c>
+      <c r="J21">
+        <v>0.005338369185047188</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>13.95683033333333</v>
+      </c>
+      <c r="N21">
+        <v>41.870491</v>
+      </c>
+      <c r="O21">
+        <v>0.1186257117186547</v>
+      </c>
+      <c r="P21">
+        <v>0.1186257117186547</v>
+      </c>
+      <c r="Q21">
+        <v>0.5025389375355556</v>
+      </c>
+      <c r="R21">
+        <v>4.522850437820001</v>
+      </c>
+      <c r="S21">
+        <v>0.0006332678439931574</v>
+      </c>
+      <c r="T21">
+        <v>0.0006332678439931573</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.03600666666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.10802</v>
+      </c>
+      <c r="I22">
+        <v>0.005338369185047189</v>
+      </c>
+      <c r="J22">
+        <v>0.005338369185047188</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>16.22618433333333</v>
+      </c>
+      <c r="N22">
+        <v>48.678553</v>
+      </c>
+      <c r="O22">
+        <v>0.1379140262544151</v>
+      </c>
+      <c r="P22">
+        <v>0.1379140262544152</v>
+      </c>
+      <c r="Q22">
+        <v>0.5842508105622222</v>
+      </c>
+      <c r="R22">
+        <v>5.25825729506</v>
+      </c>
+      <c r="S22">
+        <v>0.0007362359879423587</v>
+      </c>
+      <c r="T22">
+        <v>0.0007362359879423588</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.03600666666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.10802</v>
+      </c>
+      <c r="I23">
+        <v>0.005338369185047189</v>
+      </c>
+      <c r="J23">
+        <v>0.005338369185047188</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.270717666666667</v>
+      </c>
+      <c r="N23">
+        <v>12.812153</v>
+      </c>
+      <c r="O23">
+        <v>0.03629885229369049</v>
+      </c>
+      <c r="P23">
+        <v>0.03629885229369049</v>
+      </c>
+      <c r="Q23">
+        <v>0.1537743074511111</v>
+      </c>
+      <c r="R23">
+        <v>1.38396876706</v>
+      </c>
+      <c r="S23">
+        <v>0.0001937766745372168</v>
+      </c>
+      <c r="T23">
+        <v>0.0001937766745372168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.03600666666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.10802</v>
+      </c>
+      <c r="I24">
+        <v>0.005338369185047189</v>
+      </c>
+      <c r="J24">
+        <v>0.005338369185047188</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>7.732288666666666</v>
+      </c>
+      <c r="N24">
+        <v>23.196866</v>
+      </c>
+      <c r="O24">
+        <v>0.06572038381141176</v>
+      </c>
+      <c r="P24">
+        <v>0.06572038381141178</v>
+      </c>
+      <c r="Q24">
+        <v>0.2784139405911111</v>
+      </c>
+      <c r="R24">
+        <v>2.50572546532</v>
+      </c>
+      <c r="S24">
+        <v>0.0003508396717683147</v>
+      </c>
+      <c r="T24">
+        <v>0.0003508396717683147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.03600666666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.10802</v>
+      </c>
+      <c r="I25">
+        <v>0.005338369185047189</v>
+      </c>
+      <c r="J25">
+        <v>0.005338369185047188</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>40.042015</v>
+      </c>
+      <c r="N25">
+        <v>120.126045</v>
+      </c>
+      <c r="O25">
+        <v>0.3403360515660573</v>
+      </c>
+      <c r="P25">
+        <v>0.3403360515660573</v>
+      </c>
+      <c r="Q25">
+        <v>1.441779486766667</v>
+      </c>
+      <c r="R25">
+        <v>12.9760153809</v>
+      </c>
+      <c r="S25">
+        <v>0.001816839490240872</v>
+      </c>
+      <c r="T25">
+        <v>0.001816839490240871</v>
       </c>
     </row>
   </sheetData>
